--- a/Fantom Collection NFT.xlsx
+++ b/Fantom Collection NFT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lap14205/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lap14205/Documents/home/blockchain/CovalentAnalyst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1ECD13-164F-AF47-84FE-72353DAF9F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD2C69C-085D-9E4C-8F6F-CAF26C53336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="520" windowWidth="28740" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,42 +19,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Collection'!$A$1:$O$15</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Main Data'!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Main Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Main Data'!$F$2:$F$179</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Main Data'!$D$2:$D$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -589,9 +553,6 @@
     <t>5.0360484</t>
   </si>
   <si>
-    <t>Collection NFT Status on Fantom Chain</t>
-  </si>
-  <si>
     <t>NAUTILUS</t>
   </si>
   <si>
@@ -1256,6 +1217,9 @@
   </si>
   <si>
     <t>ALPACANFT</t>
+  </si>
+  <si>
+    <t>Collection NFT Status on Fantom Chain (chainId: 250)</t>
   </si>
 </sst>
 </file>
@@ -4787,8 +4751,8 @@
   </sheetPr>
   <dimension ref="B1:M65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4809,7 +4773,7 @@
     <row r="1" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B2" s="24" t="s">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -5982,7 +5946,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>56</v>
@@ -5991,22 +5955,22 @@
         <v>1.912E+20</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>55</v>
@@ -6026,34 +5990,34 @@
         <v>45</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="19">
         <v>1.9408789999999999E+21</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>24</v>
@@ -6070,34 +6034,34 @@
         <v>45</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>24</v>
@@ -6114,34 +6078,34 @@
         <v>45</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>24</v>
@@ -6158,34 +6122,34 @@
         <v>45</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>24</v>
@@ -6202,34 +6166,34 @@
         <v>45</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="J7" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>24</v>
@@ -6246,10 +6210,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="19">
         <v>8.500001E+18</v>
@@ -6267,7 +6231,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K8" s="19">
         <v>26.808942999999999</v>
@@ -6290,19 +6254,19 @@
         <v>58</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="19">
         <v>569.02549999999997</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" s="19">
         <v>81.289360000000002</v>
@@ -6311,7 +6275,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K9" s="19">
         <v>32.6434</v>
@@ -6334,10 +6298,10 @@
         <v>58</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="19">
         <v>2.7E+18</v>
@@ -6355,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" s="19">
         <v>41.734340000000003</v>
@@ -6378,10 +6342,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="19">
         <v>7.1E+18</v>
@@ -6399,7 +6363,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K11" s="19">
         <v>45.519722000000002</v>
@@ -6422,19 +6386,19 @@
         <v>58</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" s="19">
         <v>210.01605000000001</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12" s="19">
         <v>16.155080000000002</v>
@@ -6443,7 +6407,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K12" s="19">
         <v>50.374110000000002</v>
@@ -6466,19 +6430,19 @@
         <v>58</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="F13" s="19">
         <v>288.79199999999997</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H13" s="19">
         <v>19.252800000000001</v>
@@ -6487,7 +6451,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K13" s="19">
         <v>47.630940000000002</v>
@@ -6510,19 +6474,19 @@
         <v>58</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="F14" s="19">
         <v>640.16094999999996</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H14" s="19">
         <v>58.196452999999998</v>
@@ -6531,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K14" s="19">
         <v>63.905056000000002</v>
@@ -6554,19 +6518,19 @@
         <v>58</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="F15" s="19">
         <v>1119.6541999999999</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="19">
         <v>101.78673999999999</v>
@@ -6575,7 +6539,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K15" s="19">
         <v>68.547250000000005</v>
@@ -6598,19 +6562,19 @@
         <v>58</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="F16" s="19">
         <v>863.34655999999995</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H16" s="19">
         <v>43.167327999999998</v>
@@ -6619,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K16" s="19">
         <v>111.72602999999999</v>
@@ -6642,19 +6606,19 @@
         <v>58</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="F17" s="19">
         <v>1394.2843</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H17" s="19">
         <v>82.016720000000007</v>
@@ -6663,7 +6627,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K17" s="19">
         <v>118.70905999999999</v>
@@ -6686,19 +6650,19 @@
         <v>58</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="F18" s="19">
         <v>1727.0115000000001</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" s="19">
         <v>35.979404000000002</v>
@@ -6707,7 +6671,7 @@
         <v>47</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K18" s="19">
         <v>121.59138</v>
@@ -6730,19 +6694,19 @@
         <v>58</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="F19" s="19">
         <v>1642.1085</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H19" s="19">
         <v>74.641300000000001</v>
@@ -6751,7 +6715,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K19" s="19">
         <v>147.8021</v>
@@ -6774,19 +6738,19 @@
         <v>58</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="F20" s="19">
         <v>8676.3410000000003</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H20" s="19">
         <v>125.74406999999999</v>
@@ -6795,7 +6759,7 @@
         <v>69</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K20" s="19">
         <v>157.43441999999999</v>
@@ -6818,19 +6782,19 @@
         <v>58</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="F21" s="19">
         <v>5772.5015000000003</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H21" s="19">
         <v>90.195335</v>
@@ -6839,7 +6803,7 @@
         <v>64</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K21" s="19">
         <v>160.32400000000001</v>
@@ -6862,19 +6826,19 @@
         <v>58</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="F22" s="19">
         <v>22616.344000000001</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H22" s="19">
         <v>200.14464000000001</v>
@@ -6883,7 +6847,7 @@
         <v>113</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K22" s="19">
         <v>186.44874999999999</v>
@@ -6906,19 +6870,19 @@
         <v>58</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>272</v>
       </c>
       <c r="F23" s="19">
         <v>1433.8710000000001</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H23" s="19">
         <v>89.616935999999995</v>
@@ -6927,7 +6891,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K23" s="19">
         <v>89.616935999999995</v>
@@ -6950,19 +6914,19 @@
         <v>67</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F24" s="19">
         <v>79.891869999999997</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H24" s="19">
         <v>39.945934000000001</v>
@@ -6971,7 +6935,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K24" s="19">
         <v>49.671917000000001</v>
@@ -6994,19 +6958,19 @@
         <v>67</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" s="19">
         <v>358.25214</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H25" s="19">
         <v>51.178879999999999</v>
@@ -7015,7 +6979,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K25" s="19">
         <v>46.277797999999997</v>
@@ -7038,19 +7002,19 @@
         <v>67</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F26" s="19">
         <v>532.53954999999996</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H26" s="19">
         <v>35.502636000000003</v>
@@ -7059,7 +7023,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K26" s="19">
         <v>40.546109999999999</v>
@@ -7082,19 +7046,19 @@
         <v>67</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F27" s="19">
         <v>342.38639999999998</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H27" s="19">
         <v>38.042934000000002</v>
@@ -7103,7 +7067,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K27" s="19">
         <v>44.353287000000002</v>
@@ -7126,19 +7090,19 @@
         <v>67</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F28" s="19">
         <v>216.54537999999999</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H28" s="19">
         <v>43.309080000000002</v>
@@ -7147,7 +7111,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K28" s="19">
         <v>49.231819999999999</v>
@@ -7170,19 +7134,19 @@
         <v>67</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="F29" s="19">
         <v>250.32615999999999</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H29" s="19">
         <v>41.721026999999999</v>
@@ -7191,7 +7155,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K29" s="19">
         <v>39.293419999999998</v>
@@ -7214,19 +7178,19 @@
         <v>67</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F30" s="19">
         <v>904.99976000000004</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H30" s="19">
         <v>45.249989999999997</v>
@@ -7235,7 +7199,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K30" s="19">
         <v>43.660023000000002</v>
@@ -7258,19 +7222,19 @@
         <v>67</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F31" s="19">
         <v>215.27438000000001</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H31" s="19">
         <v>53.818595999999999</v>
@@ -7279,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K31" s="19">
         <v>41.621853000000002</v>
@@ -7302,19 +7266,19 @@
         <v>67</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F32" s="19">
         <v>589.71686</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H32" s="19">
         <v>42.122630000000001</v>
@@ -7323,7 +7287,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K32" s="19">
         <v>43.185690000000001</v>
@@ -7346,19 +7310,19 @@
         <v>67</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F33" s="19">
         <v>504.39578</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H33" s="19">
         <v>50.439579999999999</v>
@@ -7367,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" s="19">
         <v>48.205196000000001</v>
@@ -7390,19 +7354,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" s="19">
         <v>388.30847</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H34" s="19">
         <v>43.145386000000002</v>
@@ -7411,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K34" s="19">
         <v>50.386986</v>
@@ -7434,19 +7398,19 @@
         <v>67</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F35" s="19">
         <v>691.93389999999999</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H35" s="19">
         <v>49.423850000000002</v>
@@ -7455,7 +7419,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K35" s="19">
         <v>52.645029999999998</v>
@@ -7478,19 +7442,19 @@
         <v>67</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F36" s="19">
         <v>593.67255</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H36" s="19">
         <v>53.970230000000001</v>
@@ -7499,7 +7463,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K36" s="19">
         <v>59.826630000000002</v>
@@ -7522,19 +7486,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F37" s="19">
         <v>1117.4141999999999</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H37" s="19">
         <v>58.81127</v>
@@ -7543,7 +7507,7 @@
         <v>19</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K37" s="19">
         <v>65.995220000000003</v>
@@ -7566,19 +7530,19 @@
         <v>67</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F38" s="19">
         <v>1107.4275</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H38" s="19">
         <v>55.371375999999998</v>
@@ -7587,7 +7551,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K38" s="19">
         <v>71.736059999999995</v>
@@ -7610,19 +7574,19 @@
         <v>67</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" s="19">
         <v>633.14635999999996</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H39" s="19">
         <v>48.703564</v>
@@ -7631,7 +7595,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K39" s="19">
         <v>71.378230000000002</v>
@@ -7654,19 +7618,19 @@
         <v>67</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F40" s="19">
         <v>363.80606</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H40" s="19">
         <v>60.634346000000001</v>
@@ -7675,7 +7639,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K40" s="19">
         <v>74.530460000000005</v>
@@ -7698,19 +7662,19 @@
         <v>67</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D41" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="F41" s="19">
         <v>854.21280000000002</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H41" s="19">
         <v>61.0152</v>
@@ -7719,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K41" s="19">
         <v>77.719769999999997</v>
@@ -7742,19 +7706,19 @@
         <v>67</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D42" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>332</v>
       </c>
       <c r="F42" s="19">
         <v>1152.4128000000001</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H42" s="19">
         <v>67.788989999999998</v>
@@ -7763,7 +7727,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K42" s="19">
         <v>82.405749999999998</v>
@@ -7786,19 +7750,19 @@
         <v>67</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D43" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>336</v>
       </c>
       <c r="F43" s="19">
         <v>1585.663</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H43" s="19">
         <v>88.092383999999996</v>
@@ -7807,7 +7771,7 @@
         <v>18</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K43" s="19">
         <v>93.742874</v>
@@ -7830,19 +7794,19 @@
         <v>67</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D44" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="F44" s="19">
         <v>3248.1956</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H44" s="19">
         <v>104.7805</v>
@@ -7851,7 +7815,7 @@
         <v>31</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K44" s="19">
         <v>100.82075</v>
@@ -7874,19 +7838,19 @@
         <v>67</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D45" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="F45" s="19">
         <v>373.84012000000001</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H45" s="19">
         <v>74.768020000000007</v>
@@ -7895,7 +7859,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K45" s="19">
         <v>74.768020000000007</v>
@@ -7918,10 +7882,10 @@
         <v>78</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="19">
         <v>5E+18</v>
@@ -7939,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K46" s="19">
         <v>71.661829999999995</v>
@@ -7962,13 +7926,13 @@
         <v>78</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F47" s="19">
         <v>34.157055</v>
@@ -7983,7 +7947,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K47" s="19">
         <v>62.828760000000003</v>
@@ -8006,19 +7970,19 @@
         <v>78</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F48" s="19">
         <v>608.03380000000004</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H48" s="19">
         <v>67.55932</v>
@@ -8027,7 +7991,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K48" s="19">
         <v>74.366150000000005</v>
@@ -8050,19 +8014,19 @@
         <v>78</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F49" s="19">
         <v>4516.6279999999997</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H49" s="19">
         <v>70.572310000000002</v>
@@ -8071,7 +8035,7 @@
         <v>60</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K49" s="19">
         <v>70.572310000000002</v>
@@ -8094,19 +8058,19 @@
         <v>88</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="F50" s="19">
         <v>82.397994999999995</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H50" s="19">
         <v>41.198996999999999</v>
@@ -8115,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K50" s="19">
         <v>45.117379999999997</v>
@@ -8138,19 +8102,19 @@
         <v>88</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F51" s="19">
         <v>177.77755999999999</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H51" s="19">
         <v>59.259186</v>
@@ -8159,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K51" s="19">
         <v>42.661124999999998</v>
@@ -8182,19 +8146,19 @@
         <v>88</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F52" s="19">
         <v>84.44914</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H52" s="19">
         <v>28.149715</v>
@@ -8203,7 +8167,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K52" s="19">
         <v>28.149715</v>
@@ -8226,19 +8190,19 @@
         <v>98</v>
       </c>
       <c r="C53" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>364</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="F53" s="19">
         <v>279.44051999999999</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H53" s="19">
         <v>69.860129999999998</v>
@@ -8247,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K53" s="19">
         <v>69.860129999999998</v>
@@ -8270,19 +8234,19 @@
         <v>105</v>
       </c>
       <c r="C54" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="F54" s="19">
         <v>80.004456000000005</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H54" s="19">
         <v>80.004456000000005</v>
@@ -8291,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K54" s="19">
         <v>65.781440000000003</v>
@@ -8314,19 +8278,19 @@
         <v>105</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F55" s="19">
         <v>171.57085000000001</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H55" s="19">
         <v>57.190285000000003</v>
@@ -8335,7 +8299,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K55" s="19">
         <v>57.190285000000003</v>
@@ -8358,19 +8322,19 @@
         <v>112</v>
       </c>
       <c r="C56" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>373</v>
       </c>
       <c r="F56" s="19">
         <v>208.01512</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H56" s="19">
         <v>104.00756</v>
@@ -8379,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K56" s="19">
         <v>104.00756</v>
@@ -8402,10 +8366,10 @@
         <v>119</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E57" s="19">
         <v>5E+19</v>
@@ -8446,10 +8410,10 @@
         <v>119</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E58" s="19">
         <v>1.2E+19</v>
@@ -8490,10 +8454,10 @@
         <v>124</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59" s="19">
         <v>1.33E+19</v>
@@ -8534,10 +8498,10 @@
         <v>124</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E60" s="19">
         <v>3E+19</v>
@@ -8578,10 +8542,10 @@
         <v>131</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E61" s="19">
         <v>1E+19</v>
@@ -8622,10 +8586,10 @@
         <v>131</v>
       </c>
       <c r="C62" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>380</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>381</v>
       </c>
       <c r="E62" s="19">
         <v>3E+19</v>
@@ -8666,10 +8630,10 @@
         <v>136</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63" s="19">
         <v>3.5E+19</v>
@@ -8710,10 +8674,10 @@
         <v>140</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E64" s="19">
         <v>1.3E+19</v>
@@ -8754,10 +8718,10 @@
         <v>140</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E65" s="19">
         <v>7E+18</v>
@@ -8798,10 +8762,10 @@
         <v>140</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E66" s="19">
         <v>6E+18</v>
@@ -8842,10 +8806,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>383</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>384</v>
       </c>
       <c r="E67" s="19">
         <v>3E+18</v>
@@ -8886,10 +8850,10 @@
         <v>140</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E68" s="19">
         <v>2E+18</v>
@@ -8930,10 +8894,10 @@
         <v>145</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E69" s="19">
         <v>2E+19</v>
@@ -8974,10 +8938,10 @@
         <v>145</v>
       </c>
       <c r="C70" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>386</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>387</v>
       </c>
       <c r="E70" s="19">
         <v>2E+19</v>
@@ -9018,10 +8982,10 @@
         <v>149</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E71" s="19">
         <v>1.9695E+19</v>
@@ -9062,10 +9026,10 @@
         <v>153</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" s="19">
         <v>1.1E+18</v>
@@ -9106,10 +9070,10 @@
         <v>153</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E73" s="19">
         <v>3E+18</v>
@@ -9150,10 +9114,10 @@
         <v>153</v>
       </c>
       <c r="C74" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>390</v>
       </c>
       <c r="E74" s="19">
         <v>2E+18</v>
@@ -9194,10 +9158,10 @@
         <v>153</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E75" s="19">
         <v>1.1E+18</v>
@@ -9238,10 +9202,10 @@
         <v>153</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E76" s="19">
         <v>1E+18</v>
@@ -9282,10 +9246,10 @@
         <v>153</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E77" s="19">
         <v>1.52E+19</v>
@@ -9326,10 +9290,10 @@
         <v>160</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E78" s="19">
         <v>6.2E+18</v>
@@ -9370,10 +9334,10 @@
         <v>160</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79" s="19">
         <v>5.6E+18</v>
@@ -9414,10 +9378,10 @@
         <v>160</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E80" s="19">
         <v>6E+18</v>
@@ -9458,10 +9422,10 @@
         <v>160</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E81" s="19">
         <v>1.3E+18</v>
@@ -9502,10 +9466,10 @@
         <v>160</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E82" s="19">
         <v>2.9E+18</v>
@@ -9546,10 +9510,10 @@
         <v>167</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E83" s="19">
         <v>2.5E+18</v>
@@ -9590,10 +9554,10 @@
         <v>167</v>
       </c>
       <c r="C84" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>375</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>376</v>
       </c>
       <c r="E84" s="19">
         <v>1.155E+18</v>
@@ -9634,10 +9598,10 @@
         <v>167</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E85" s="19">
         <v>1.31E+19</v>
